--- a/Multiple select choice filter example.xlsx
+++ b/Multiple select choice filter example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexThomson\Dropbox (SSD)\TPP Questionnaire ODK\Forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA97DE61-4D03-469E-9BD6-2A1D29143BB7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF71E4C-0879-4C0B-B3BA-FE51CA52528B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27870" windowHeight="16440" xr2:uid="{1B59B8E9-902C-4675-BAFC-F0B988D9479A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27870" windowHeight="16440" activeTab="1" xr2:uid="{1B59B8E9-902C-4675-BAFC-F0B988D9479A}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>type</t>
   </si>
@@ -122,67 +122,31 @@
     <t>Main activities:</t>
   </si>
   <si>
-    <t>activity_1</t>
+    <t>not(selected(${main_activities}, name))</t>
   </si>
   <si>
-    <t>Activity 1</t>
+    <t>a</t>
   </si>
   <si>
-    <t>activity_2</t>
+    <t>appearance</t>
   </si>
   <si>
-    <t>activity_3</t>
+    <t>field-list</t>
   </si>
   <si>
-    <t>activity_4</t>
+    <t>begin repeat</t>
   </si>
   <si>
-    <t>activity_5</t>
+    <t>end repeat</t>
   </si>
   <si>
-    <t>activity_6</t>
+    <t>search('eg')</t>
   </si>
   <si>
-    <t>activity_7</t>
+    <t>activity_id</t>
   </si>
   <si>
-    <t>activity_8</t>
-  </si>
-  <si>
-    <t>activity_9</t>
-  </si>
-  <si>
-    <t>activity_10</t>
-  </si>
-  <si>
-    <t>Activity 2</t>
-  </si>
-  <si>
-    <t>Activity 3</t>
-  </si>
-  <si>
-    <t>Activity 4</t>
-  </si>
-  <si>
-    <t>Activity 5</t>
-  </si>
-  <si>
-    <t>Activity 6</t>
-  </si>
-  <si>
-    <t>Activity 7</t>
-  </si>
-  <si>
-    <t>Activity 8</t>
-  </si>
-  <si>
-    <t>Activity 9</t>
-  </si>
-  <si>
-    <t>Activity 10</t>
-  </si>
-  <si>
-    <t>not(selected(${main_activities}, name))</t>
+    <t>activity_name</t>
   </si>
 </sst>
 </file>
@@ -258,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -272,6 +236,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -637,11 +607,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E7D873-2746-405F-A900-76854FB243C9}">
-  <dimension ref="A1:L929"/>
+  <dimension ref="A1:F930"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,10 +621,11 @@
     <col min="3" max="3" width="26.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" style="4" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="34.5703125" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="3"/>
+    <col min="6" max="6" width="29.85546875" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -670,113 +641,134 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="4" t="str">
-        <f t="shared" ref="D2:D3" si="0">IF(ISBLANK(C2),"","French Translation")</f>
-        <v>French Translation</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="F2" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="4" t="str">
+        <f t="shared" ref="D3:D4" si="0">IF(ISBLANK(C3),"","French Translation")</f>
+        <v>French Translation</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="4" t="str">
+      <c r="D4" s="4" t="str">
         <f t="shared" si="0"/>
         <v>French Translation</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D4" s="4" t="str">
-        <f t="shared" ref="D4:D59" si="1">IF(ISBLANK(C4),"","French Translation")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="D5" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" ref="D5:D60" si="1">IF(ISBLANK(C5),"","French Translation")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D6" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D7" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D8" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D9" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D10" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D11" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D12" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D13" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D14" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D15" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D16" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1042,13 +1034,13 @@
     </row>
     <row r="60" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D60" s="4" t="str">
-        <f t="shared" ref="D60:D123" si="2">IF(ISBLANK(C60),"","French Translation")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="61" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D61" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="D61:D124" si="2">IF(ISBLANK(C61),"","French Translation")</f>
         <v/>
       </c>
     </row>
@@ -1426,13 +1418,13 @@
     </row>
     <row r="124" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D124" s="4" t="str">
-        <f t="shared" ref="D124:D187" si="3">IF(ISBLANK(C124),"","French Translation")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="125" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D125" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="D125:D188" si="3">IF(ISBLANK(C125),"","French Translation")</f>
         <v/>
       </c>
     </row>
@@ -1810,13 +1802,13 @@
     </row>
     <row r="188" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D188" s="4" t="str">
-        <f t="shared" ref="D188:D251" si="4">IF(ISBLANK(C188),"","French Translation")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="189" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D189" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="D189:D252" si="4">IF(ISBLANK(C189),"","French Translation")</f>
         <v/>
       </c>
     </row>
@@ -2194,13 +2186,13 @@
     </row>
     <row r="252" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D252" s="4" t="str">
-        <f t="shared" ref="D252:D315" si="5">IF(ISBLANK(C252),"","French Translation")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="253" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D253" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="D253:D316" si="5">IF(ISBLANK(C253),"","French Translation")</f>
         <v/>
       </c>
     </row>
@@ -2578,13 +2570,13 @@
     </row>
     <row r="316" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D316" s="4" t="str">
-        <f t="shared" ref="D316:D379" si="6">IF(ISBLANK(C316),"","French Translation")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="317" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D317" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="D317:D380" si="6">IF(ISBLANK(C317),"","French Translation")</f>
         <v/>
       </c>
     </row>
@@ -2962,13 +2954,13 @@
     </row>
     <row r="380" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D380" s="4" t="str">
-        <f t="shared" ref="D380:D443" si="7">IF(ISBLANK(C380),"","French Translation")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="381" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D381" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="D381:D444" si="7">IF(ISBLANK(C381),"","French Translation")</f>
         <v/>
       </c>
     </row>
@@ -3346,13 +3338,13 @@
     </row>
     <row r="444" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D444" s="4" t="str">
-        <f t="shared" ref="D444:D507" si="8">IF(ISBLANK(C444),"","French Translation")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="445" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D445" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="D445:D508" si="8">IF(ISBLANK(C445),"","French Translation")</f>
         <v/>
       </c>
     </row>
@@ -3730,13 +3722,13 @@
     </row>
     <row r="508" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D508" s="4" t="str">
-        <f t="shared" ref="D508:D571" si="9">IF(ISBLANK(C508),"","French Translation")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="509" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D509" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="D509:D572" si="9">IF(ISBLANK(C509),"","French Translation")</f>
         <v/>
       </c>
     </row>
@@ -4114,13 +4106,13 @@
     </row>
     <row r="572" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D572" s="4" t="str">
-        <f t="shared" ref="D572:D635" si="10">IF(ISBLANK(C572),"","French Translation")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="573" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D573" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="D573:D636" si="10">IF(ISBLANK(C573),"","French Translation")</f>
         <v/>
       </c>
     </row>
@@ -4498,13 +4490,13 @@
     </row>
     <row r="636" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D636" s="4" t="str">
-        <f t="shared" ref="D636:D699" si="11">IF(ISBLANK(C636),"","French Translation")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="637" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D637" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="D637:D700" si="11">IF(ISBLANK(C637),"","French Translation")</f>
         <v/>
       </c>
     </row>
@@ -4882,13 +4874,13 @@
     </row>
     <row r="700" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D700" s="4" t="str">
-        <f t="shared" ref="D700:D763" si="12">IF(ISBLANK(C700),"","French Translation")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="701" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D701" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="D701:D764" si="12">IF(ISBLANK(C701),"","French Translation")</f>
         <v/>
       </c>
     </row>
@@ -5266,13 +5258,13 @@
     </row>
     <row r="764" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D764" s="4" t="str">
-        <f t="shared" ref="D764:D827" si="13">IF(ISBLANK(C764),"","French Translation")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="765" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D765" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="D765:D828" si="13">IF(ISBLANK(C765),"","French Translation")</f>
         <v/>
       </c>
     </row>
@@ -5650,13 +5642,13 @@
     </row>
     <row r="828" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D828" s="4" t="str">
-        <f t="shared" ref="D828:D891" si="14">IF(ISBLANK(C828),"","French Translation")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="829" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D829" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="D829:D892" si="14">IF(ISBLANK(C829),"","French Translation")</f>
         <v/>
       </c>
     </row>
@@ -6034,13 +6026,13 @@
     </row>
     <row r="892" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D892" s="4" t="str">
-        <f t="shared" ref="D892:D929" si="15">IF(ISBLANK(C892),"","French Translation")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="893" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D893" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="D893:D930" si="15">IF(ISBLANK(C893),"","French Translation")</f>
         <v/>
       </c>
     </row>
@@ -6256,6 +6248,12 @@
     </row>
     <row r="929" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D929" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="930" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D930" s="4" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
@@ -6285,8 +6283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{650F2481-8A5C-426A-BBB4-B3DBF82FF48B}">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6315,109 +6313,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
         <v>30</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.25"/>
@@ -6477,7 +6376,7 @@
       </c>
       <c r="D2" s="5" t="str">
         <f ca="1">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2103081645</v>
+        <v>2103091129</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
